--- a/categories/Champagne/Champage costs.xlsx
+++ b/categories/Champagne/Champage costs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shopping Task photos\Shopping Task photos\Shopping Task photos\Champagne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shopping Task photos\Champagne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09E4F46-8930-4AB5-9FA2-FA6B7C10A2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69B8414-A849-4869-B448-F60782FD621F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{D439D852-91B7-4FD7-9FC2-AB863A464608}"/>
+    <workbookView xWindow="9800" yWindow="0" windowWidth="9400" windowHeight="10200" xr2:uid="{D439D852-91B7-4FD7-9FC2-AB863A464608}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,106 +47,106 @@
     <t>maximum</t>
   </si>
   <si>
-    <t>Champage1</t>
-  </si>
-  <si>
-    <t>Champage2</t>
-  </si>
-  <si>
-    <t>Champage3</t>
-  </si>
-  <si>
-    <t>Champage4</t>
-  </si>
-  <si>
-    <t>Champage5</t>
-  </si>
-  <si>
-    <t>Champage6</t>
-  </si>
-  <si>
-    <t>Champage7</t>
-  </si>
-  <si>
-    <t>Champage8</t>
-  </si>
-  <si>
-    <t>Champage9</t>
-  </si>
-  <si>
-    <t>Champage10</t>
-  </si>
-  <si>
-    <t>Champage11</t>
-  </si>
-  <si>
-    <t>Champage12</t>
-  </si>
-  <si>
-    <t>Champage13</t>
-  </si>
-  <si>
-    <t>Champage14</t>
-  </si>
-  <si>
-    <t>Champage15</t>
-  </si>
-  <si>
-    <t>Champage16</t>
-  </si>
-  <si>
-    <t>Champage17</t>
-  </si>
-  <si>
-    <t>Champage18</t>
-  </si>
-  <si>
-    <t>Champage19</t>
-  </si>
-  <si>
-    <t>Champage20</t>
-  </si>
-  <si>
-    <t>Champage21</t>
-  </si>
-  <si>
-    <t>Champage22</t>
-  </si>
-  <si>
-    <t>Champage23</t>
-  </si>
-  <si>
-    <t>Champage24</t>
-  </si>
-  <si>
-    <t>Champage25</t>
-  </si>
-  <si>
-    <t>Champage26</t>
-  </si>
-  <si>
-    <t>Champage27</t>
-  </si>
-  <si>
-    <t>Champage28</t>
-  </si>
-  <si>
-    <t>Champage29</t>
-  </si>
-  <si>
-    <t>Champage30</t>
-  </si>
-  <si>
-    <t>Champage31</t>
-  </si>
-  <si>
-    <t>Champage32</t>
-  </si>
-  <si>
-    <t>Champage33</t>
-  </si>
-  <si>
-    <t>Champage34</t>
+    <t>Champage 1</t>
+  </si>
+  <si>
+    <t>Champage 2</t>
+  </si>
+  <si>
+    <t>Champage 3</t>
+  </si>
+  <si>
+    <t>Champage 4</t>
+  </si>
+  <si>
+    <t>Champage 5</t>
+  </si>
+  <si>
+    <t>Champage 6</t>
+  </si>
+  <si>
+    <t>Champage 7</t>
+  </si>
+  <si>
+    <t>Champage 8</t>
+  </si>
+  <si>
+    <t>Champage 9</t>
+  </si>
+  <si>
+    <t>Champage 10</t>
+  </si>
+  <si>
+    <t>Champage 11</t>
+  </si>
+  <si>
+    <t>Champage 12</t>
+  </si>
+  <si>
+    <t>Champage 13</t>
+  </si>
+  <si>
+    <t>Champage 14</t>
+  </si>
+  <si>
+    <t>Champage 15</t>
+  </si>
+  <si>
+    <t>Champage 16</t>
+  </si>
+  <si>
+    <t>Champage 17</t>
+  </si>
+  <si>
+    <t>Champage 18</t>
+  </si>
+  <si>
+    <t>Champage 19</t>
+  </si>
+  <si>
+    <t>Champage 20</t>
+  </si>
+  <si>
+    <t>Champage 21</t>
+  </si>
+  <si>
+    <t>Champage 22</t>
+  </si>
+  <si>
+    <t>Champage 23</t>
+  </si>
+  <si>
+    <t>Champage 24</t>
+  </si>
+  <si>
+    <t>Champage 25</t>
+  </si>
+  <si>
+    <t>Champage 26</t>
+  </si>
+  <si>
+    <t>Champage 27</t>
+  </si>
+  <si>
+    <t>Champage 28</t>
+  </si>
+  <si>
+    <t>Champage 29</t>
+  </si>
+  <si>
+    <t>Champage 30</t>
+  </si>
+  <si>
+    <t>Champage 31</t>
+  </si>
+  <si>
+    <t>Champage 32</t>
+  </si>
+  <si>
+    <t>Champage 33</t>
+  </si>
+  <si>
+    <t>Champage 34</t>
   </si>
 </sst>
 </file>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41A4138-2412-4A53-9764-6E64ACAF203E}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
